--- a/bots/crawl_ch/output/bread_coop_2022-12-18.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2022-12-18.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Betty Bossi Frischback Silserbuttergipfel IP-Suisse 3.20 Schweizer Franken</t>
+          <t>Betty Bossi Frischback Silserbuttergipfel IP-Suisse - Online kein Bestand 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -1602,31 +1602,31 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4913403</t>
+          <t>6444276</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Butterzopf</t>
+          <t>Frischback Bio Buttergipfel</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/butterzopf/p/4913403</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/frischback-bio-buttergipfel/p/6444276</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E18" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1635,12 +1635,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.88/100g</t>
+          <t>2.03/100g</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1660,42 +1660,46 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Butterzopf 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
+          <t>Frischback Bio Buttergipfel - Online kein Bestand 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6444276</t>
+          <t>4913403</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Frischback Bio Buttergipfel</t>
+          <t>Butterzopf</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/frischback-bio-buttergipfel/p/6444276</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/butterzopf/p/4913403</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1704,12 +1708,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2.03/100g</t>
+          <t>0.88/100g</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1719,7 +1723,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1729,22 +1733,18 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Frischback Bio Buttergipfel 3.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Butterzopf 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -1813,7 +1813,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -1882,7 +1882,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -2239,7 +2239,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -2308,7 +2308,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -2446,7 +2446,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig rund ausgewallt Ø32cm 3.20 Schweizer Franken</t>
+          <t>Leisi Blätterteig rund ausgewallt Ø32cm - Online kein Bestand 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -3095,7 +3095,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -3168,7 +3168,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -3379,7 +3379,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -3521,7 +3521,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -3659,7 +3659,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -3728,7 +3728,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -4158,7 +4158,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -4373,7 +4373,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -4442,7 +4442,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4653,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -4795,7 +4795,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -4868,7 +4868,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -4937,7 +4937,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -5079,7 +5079,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -5290,7 +5290,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -5363,7 +5363,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -5505,7 +5505,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -5578,7 +5578,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -5647,7 +5647,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -5716,7 +5716,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -5785,7 +5785,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -5854,7 +5854,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -6000,7 +6000,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -6069,7 +6069,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -6142,7 +6142,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -6215,7 +6215,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -6284,7 +6284,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -6430,7 +6430,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -6572,7 +6572,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -6714,7 +6714,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -6783,7 +6783,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -6852,7 +6852,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -6925,7 +6925,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -6994,7 +6994,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -7063,7 +7063,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -7132,7 +7132,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -7201,7 +7201,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -7274,7 +7274,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -7347,7 +7347,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7416,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -7489,7 +7489,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -7562,7 +7562,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -7635,7 +7635,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -7708,7 +7708,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -7777,7 +7777,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -7846,7 +7846,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -7917,28 +7917,28 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>4004924</t>
+          <t>4835222</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Maiswaffeln Quinoa &amp;amp; Amaranth</t>
+          <t>Reiswaffeln Barbecue Flavour</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/maiswaffeln-quinoa-amaranth/p/4004924</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/reiswaffeln-barbecue-flavour/p/4835222</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E107" t="n">
         <v>5</v>
@@ -7950,12 +7950,12 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>1.92/100g</t>
+          <t>3.38/100g</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7965,7 +7965,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -7980,7 +7980,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>Maiswaffeln Quinoa &amp;amp; Amaranth 2.50 Schweizer Franken</t>
+          <t>Reiswaffeln Barbecue Flavour 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
@@ -7990,28 +7990,28 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>4835222</t>
+          <t>4004924</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Reiswaffeln Barbecue Flavour</t>
+          <t>Maiswaffeln Quinoa &amp;amp; Amaranth</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/reiswaffeln-barbecue-flavour/p/4835222</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/reiswaffeln/maiswaffeln-quinoa-amaranth/p/4004924</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E108" t="n">
         <v>5</v>
@@ -8023,12 +8023,12 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>3.38/100g</t>
+          <t>1.92/100g</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -8038,7 +8038,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -8053,7 +8053,7 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Reiswaffeln Barbecue Flavour 2.70 Schweizer Franken</t>
+          <t>Maiswaffeln Quinoa &amp;amp; Amaranth 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
@@ -8063,7 +8063,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -8132,7 +8132,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -8201,7 +8201,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -8270,7 +8270,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -8343,7 +8343,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -8489,7 +8489,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -8558,7 +8558,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -8627,7 +8627,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -8700,7 +8700,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -8769,7 +8769,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -8842,7 +8842,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -8915,7 +8915,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -8984,7 +8984,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -9057,7 +9057,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -9130,7 +9130,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -9203,7 +9203,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -9276,45 +9276,45 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>4750751</t>
+          <t>6825720</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Hafer</t>
+          <t>Prix Garantie Roggenvollkornbrot</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-hafer/p/4750751</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/prix-garantie-roggenvollkornbrot/p/6825720</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E126" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>1.63/100g</t>
+          <t>0.36/100g</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -9324,7 +9324,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="K126" t="inlineStr">
@@ -9334,60 +9334,56 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Hafer 3.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Roggenvollkornbrot 1.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>6825720</t>
+          <t>4750751</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggenvollkornbrot</t>
+          <t>Roland Knäckebrot Hafer</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/prix-garantie-roggenvollkornbrot/p/6825720</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-hafer/p/4750751</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E127" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>0.36/100g</t>
+          <t>1.63/100g</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -9397,7 +9393,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -9407,18 +9403,22 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggenvollkornbrot 1.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N127" t="inlineStr"/>
+          <t>Roland Knäckebrot Hafer 3.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -9487,7 +9487,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -9556,7 +9556,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -9625,7 +9625,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -9694,7 +9694,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -9767,7 +9767,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -9836,7 +9836,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -9905,7 +9905,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -9978,7 +9978,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -10047,7 +10047,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -10120,7 +10120,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -10189,7 +10189,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -10258,7 +10258,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -10331,7 +10331,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -10404,7 +10404,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -10477,7 +10477,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -10546,7 +10546,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -10619,7 +10619,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -10688,7 +10688,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -10757,7 +10757,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -10826,7 +10826,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -10899,7 +10899,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -10972,7 +10972,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -11045,7 +11045,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -11118,7 +11118,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -11191,7 +11191,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -11260,7 +11260,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -11329,7 +11329,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -11402,7 +11402,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -11475,7 +11475,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -11548,7 +11548,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -11621,7 +11621,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -11690,7 +11690,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -11759,7 +11759,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -11828,7 +11828,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -11901,7 +11901,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -11974,7 +11974,7 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -12043,7 +12043,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -12112,7 +12112,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -12185,7 +12185,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -12258,7 +12258,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -12331,7 +12331,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -12404,7 +12404,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -12477,7 +12477,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -12546,7 +12546,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -12615,7 +12615,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -12688,7 +12688,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -12761,7 +12761,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -12830,7 +12830,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -12899,7 +12899,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -12968,7 +12968,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -13037,7 +13037,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -13110,7 +13110,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -13179,7 +13179,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -13248,7 +13248,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -13317,7 +13317,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -13384,7 +13384,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -13453,7 +13453,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -13522,7 +13522,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -13595,7 +13595,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -13668,7 +13668,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -13737,7 +13737,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -13806,7 +13806,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -13875,7 +13875,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -13948,7 +13948,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -14021,7 +14021,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -14090,7 +14090,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -14159,7 +14159,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -14232,7 +14232,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -14305,7 +14305,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -14374,7 +14374,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -14447,7 +14447,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -14516,7 +14516,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -14583,7 +14583,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -14652,7 +14652,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -14721,7 +14721,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -14790,7 +14790,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -14863,7 +14863,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -14936,7 +14936,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -15005,7 +15005,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -15074,7 +15074,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -15137,7 +15137,7 @@
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>Betty Bossi Dinkel Blätterteig eckig 3.50 Schweizer Franken</t>
+          <t>Betty Bossi Dinkel Blätterteig eckig - Online kein Bestand 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N208" t="inlineStr">
@@ -15147,43 +15147,45 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>6986883</t>
+          <t>3041815</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Betty Bossi Strudelteig</t>
+          <t>Hug Zwieback Original 250G</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-strudelteig/p/6986883</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>28</v>
+      </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Hug</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>2.08/100g</t>
+          <t>1.68/100g</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
@@ -15193,7 +15195,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -15203,60 +15205,54 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>Betty Bossi Strudelteig 2.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N209" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>3041815</t>
+          <t>6986883</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G</t>
+          <t>Betty Bossi Strudelteig</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/hug-zwieback-original-250g/p/3041815</t>
-        </is>
-      </c>
-      <c r="D210" t="n">
-        <v>28</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-strudelteig/p/6986883</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr"/>
       <c r="E210" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Hug</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>1.68/100g</t>
+          <t>2.08/100g</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -15266,7 +15262,7 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -15276,18 +15272,22 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>Hug Zwieback Original 250G 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N210" t="inlineStr"/>
+          <t>Betty Bossi Strudelteig 2.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -15356,7 +15356,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -15427,7 +15427,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -15496,7 +15496,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -15569,7 +15569,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -15638,7 +15638,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -15711,7 +15711,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -15784,7 +15784,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -15853,7 +15853,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -15922,7 +15922,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -15995,7 +15995,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -16064,7 +16064,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -16137,7 +16137,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -16206,7 +16206,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -16275,7 +16275,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -16348,7 +16348,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -16421,7 +16421,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -16494,7 +16494,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -16567,7 +16567,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -16640,7 +16640,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -16707,7 +16707,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -16780,7 +16780,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -16853,7 +16853,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -16926,7 +16926,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -16995,7 +16995,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -17064,7 +17064,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -17137,45 +17137,45 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>5777498</t>
+          <t>6010377</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Old el Paso Soft Taco Shells Mini</t>
+          <t>Cailler Schoggi Branchli Cake</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-taco-shells-mini/p/5777498</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/cailler-schoggi-branchli-cake/p/6010377</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E237" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Cailler</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>4.10/100g</t>
+          <t>1.45/100g</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -17185,7 +17185,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -17195,56 +17195,56 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>Old el Paso Soft Taco Shells Mini 5.95 Schweizer Franken</t>
+          <t>Cailler Schoggi Branchli Cake 5.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>6010377</t>
+          <t>5777498</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Cailler Schoggi Branchli Cake</t>
+          <t>Old el Paso Soft Taco Shells Mini</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/cailler-schoggi-branchli-cake/p/6010377</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-taco-shells-mini/p/5777498</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E238" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Cailler</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>1.45/100g</t>
+          <t>4.10/100g</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17254,7 +17254,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -17264,18 +17264,18 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>Cailler Schoggi Branchli Cake 5.80 Schweizer Franken</t>
+          <t>Old el Paso Soft Taco Shells Mini 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -17348,7 +17348,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -17421,7 +17421,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -17494,7 +17494,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -17567,7 +17567,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -17636,7 +17636,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -17709,7 +17709,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -17782,7 +17782,7 @@
       </c>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -17855,7 +17855,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -17924,7 +17924,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -17993,7 +17993,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -18066,45 +18066,45 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>6313768</t>
+          <t>4967195</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Choco Céréales</t>
+          <t>Bonne Maman Financier Mandeln</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-choco-cereales/p/6313768</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-financier-mandeln/p/4967195</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E250" t="n">
         <v>4.5</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>2.52/100g</t>
+          <t>3.14/100g</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -18114,7 +18114,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -18124,56 +18124,56 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Choco Céréales 2.65 Schweizer Franken</t>
+          <t>Bonne Maman Financier Mandeln 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>4967195</t>
+          <t>6313768</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Bonne Maman Financier Mandeln</t>
+          <t>Roland Petite Pause Choco Céréales</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-financier-mandeln/p/4967195</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-choco-cereales/p/6313768</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E251" t="n">
         <v>4.5</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>3.14/100g</t>
+          <t>2.52/100g</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -18183,7 +18183,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -18193,18 +18193,18 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
         </is>
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>Bonne Maman Financier Mandeln 5.50 Schweizer Franken</t>
+          <t>Roland Petite Pause Choco Céréales 2.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -18277,7 +18277,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -18346,7 +18346,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -18419,7 +18419,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -18492,7 +18492,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -18561,7 +18561,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -18630,7 +18630,7 @@
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -18699,7 +18699,7 @@
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -18768,7 +18768,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -18841,7 +18841,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -18914,7 +18914,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -18987,7 +18987,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -19060,7 +19060,7 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -19129,7 +19129,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -19198,7 +19198,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -19267,7 +19267,7 @@
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -19340,7 +19340,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -19413,7 +19413,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -19482,7 +19482,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -19551,45 +19551,45 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>4063481</t>
+          <t>4490655</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
+          <t>Brossard Zwieback Honig</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/brossard-zwieback-honig/p/4490655</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E271" t="n">
         <v>4</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Brossard</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>2.63/100g</t>
+          <t>1.26/100g</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -19599,7 +19599,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -19609,56 +19609,56 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.95 Schweizer Franken</t>
+          <t>Brossard Zwieback Honig 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>4144505</t>
+          <t>4063481</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Pandorino</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pandorino/p/4144505</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E272" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>1.78/100g</t>
+          <t>2.63/100g</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -19668,7 +19668,7 @@
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -19678,56 +19678,56 @@
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>Pandorino 20% pro 3 Aktion 1.60 Schweizer Franken</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>4490655</t>
+          <t>4144505</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Brossard Zwieback Honig</t>
+          <t>Pandorino</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/brossard-zwieback-honig/p/4490655</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pandorino/p/4144505</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E273" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Brossard</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>1.26/100g</t>
+          <t>1.78/100g</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -19737,7 +19737,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -19747,18 +19747,18 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>Brossard Zwieback Honig 4.40 Schweizer Franken</t>
+          <t>Pandorino 20% pro 3 Aktion 1.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -19827,7 +19827,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -19896,7 +19896,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -19969,7 +19969,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -20042,7 +20042,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -20111,7 +20111,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -20180,7 +20180,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -20249,7 +20249,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -20318,7 +20318,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -20387,7 +20387,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -20460,7 +20460,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -20533,7 +20533,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -20602,7 +20602,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -20671,7 +20671,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -20738,7 +20738,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -20807,7 +20807,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -20876,7 +20876,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -20945,7 +20945,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -21014,45 +21014,45 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>6967944</t>
+          <t>3845685</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc</t>
+          <t>Slow Food Roggenbrot</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E292" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -21062,7 +21062,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -21072,56 +21072,56 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
+          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>3845685</t>
+          <t>6967944</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot</t>
+          <t>St. Michel Galettes Mou Choco Blanc</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-galettes-mou-choco-blanc/p/6967944</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="E293" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21131,7 +21131,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -21141,18 +21141,18 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
+          <t>St. Michel Galettes Mou Choco Blanc 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -21221,7 +21221,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -21290,7 +21290,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -21363,7 +21363,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -21436,7 +21436,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -21505,7 +21505,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -21574,7 +21574,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -21641,7 +21641,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -21708,7 +21708,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -21777,7 +21777,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -21846,7 +21846,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -21915,7 +21915,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -21984,7 +21984,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -22053,7 +22053,7 @@
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -22122,7 +22122,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -22191,7 +22191,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -22260,7 +22260,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -22333,7 +22333,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -22406,7 +22406,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -22475,7 +22475,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -22542,7 +22542,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -22611,7 +22611,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -22684,7 +22684,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -22753,7 +22753,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -22826,7 +22826,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -22895,7 +22895,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -22966,7 +22966,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -23039,7 +23039,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -23110,7 +23110,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -23183,7 +23183,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -23256,7 +23256,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -23329,7 +23329,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -23400,7 +23400,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -23469,7 +23469,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -23542,7 +23542,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -23615,7 +23615,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -23682,7 +23682,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -23749,7 +23749,7 @@
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -23818,7 +23818,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -23887,7 +23887,7 @@
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -23958,7 +23958,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -24027,7 +24027,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -24094,7 +24094,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -24165,7 +24165,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -24234,7 +24234,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -24303,7 +24303,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -24372,7 +24372,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -24441,7 +24441,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -24508,7 +24508,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -24575,7 +24575,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -24648,7 +24648,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -24717,7 +24717,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -24786,7 +24786,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -24859,7 +24859,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -24932,7 +24932,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
@@ -24999,7 +24999,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-12-18 12:54:57</t>
+          <t>2022-12-18 20:49:35</t>
         </is>
       </c>
     </row>
